--- a/biology/Zoologie/Chamaelycus/Chamaelycus.xlsx
+++ b/biology/Zoologie/Chamaelycus/Chamaelycus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaelycus est un genre de serpents de la famille des Lamprophiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique centrale.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 déc. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 déc. 2011) :
 Chamaelycus christyi Boulenger, 1919
 Chamaelycus fasciatus (Günther, 1858)
 Chamaelycus parkeri (Angel, 1934)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1919 : Batraciens et reptiles recueillis par le Dr. C. Christy dans les districts de Stanleyville, Haut-Uelé et Ituri en 1912-1914. Revue de zoologie et de botanique africaines, vol. 7, n. 1, p. 1-29 (texte intégral).</t>
         </is>
